--- a/medicine/Médecine vétérinaire/Jim_Czajkowski/Jim_Czajkowski.xlsx
+++ b/medicine/Médecine vétérinaire/Jim_Czajkowski/Jim_Czajkowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jim Czajkowski ou James Paul Czajkowski, plus connu sous ses noms de plume James Clemens ou James Rollins, né le 20 août 1961 à Chicago, est un romancier et vétérinaire américain. Il a vendu son cabinet vétérinaire à Sacramento, en Californie, pour se consacrer pleinement à l'écriture.
 Jim Czajkowski est un spéléologue amateur et un plongeur certifié. Ces milieux l'ont par ailleurs fortement inspiré pour ses romans, où l'action se déroule fréquemment sous l'eau.
@@ -514,12 +526,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Chicago, Jim Czajkowski est diplômé de l'Université du Missouri à Columbia, en 1985 avec un doctorat (DVM) en médecine vétérinaire. Son travail de premier cycle est centré sur la biologie évolutive. Par la suite, il déménage à Sacramento, en Californie, où il exerce son métier de vétérinaire.
 Enfant, il était fasciné par les récits des exploits de Howard Carter et sa découverte de la tombe du pharaon de l'Égypte antique, Toutânkhamon. Cette histoire vraie a inspiré plus tard son roman Excavation, dans lequel le personnage principal, l'archéologue Henry Conklin, et son neveu Sam découvrent une cité perdue des Incas dans les montagnes de la jungle des Andes, contenant un trésor.
 Dans sa jeunesse, il a pu lire et être captivé par Tarzan de Edgar Rice Burroughs, Le Magicien d'Oz de L. Frank Baum, et Les Chroniques de Narnia de C. S. Lewis. En général, il a également été inspiré par des auteurs comme Jules Verne et H. G. Wells, dont les œuvres lui servaient de tremplin pour l'écriture de romans contemporains similaires, remplis de ce qu'il appelle « les trois M de la fiction » : Magie, Mutilation, et Monstres.
-James Rollins, Steve Berry et Brad Thor (en) ont commencé à faire du crossover de leurs personnages dans leurs romans, ce qui a été apprécié par les lecteurs à leur grande surprise[1].
+James Rollins, Steve Berry et Brad Thor (en) ont commencé à faire du crossover de leurs personnages dans leurs romans, ce qui a été apprécié par les lecteurs à leur grande surprise.
 </t>
         </is>
       </c>
@@ -550,20 +564,104 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous le nom de James Rollins
-Romans d'aventure
-(en) Subterranean, 1999
+          <t>Sous le nom de James Rollins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans d'aventure</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Subterranean, 1999
 (en) Excavation, 2000
 La Civilisation des abysses, Fleuve noir, 2012 ((en) Deep Fathom, 2001)
 Amazonia, Fleuve noir, 2011 ((en) Amazonia, 2002)
 Mission Iceberg, Fleuve noir, 2011 ((en) Ice Hunt, 2003)
 Indiana Jones et le Royaume du Crâne de Cristal, Bragelonne, 2008 ((en) Indiana Jones and the Kingdom of the Crystal Skull, 2008)
-Le Fléau d'Eden, Fleuve noir, 2014 ((en) Altar Of Eden, 2009)
-Série Jake Ransom
-Jake Ransom et l'Ombre du roi squelette, Pocket Jeunesse, 2010 ((en) Jake Ransom and the Skull King's Shadow, 2009)  (ISBN 978-2266182720)
-Jake Ransom et le Sphinx hurlant, Pocket Jeunesse, 2011 ((en) Jake Ransom and the Howling Sphinx, 2011)  (ISBN 978-2266182737)
-Série SIGMA Force
-Tonnerre de sable ((en) Sandstorm, 2004)Réédité en 2015 sous le titre La Cité de l'enfer
+Le Fléau d'Eden, Fleuve noir, 2014 ((en) Altar Of Eden, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le nom de James Rollins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Jake Ransom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jake Ransom et l'Ombre du roi squelette, Pocket Jeunesse, 2010 ((en) Jake Ransom and the Skull King's Shadow, 2009)  (ISBN 978-2266182720)
+Jake Ransom et le Sphinx hurlant, Pocket Jeunesse, 2011 ((en) Jake Ransom and the Howling Sphinx, 2011)  (ISBN 978-2266182737)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le nom de James Rollins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série SIGMA Force</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tonnerre de sable ((en) Sandstorm, 2004)Réédité en 2015 sous le titre La Cité de l'enfer
 L'Ordre du dragon ((en) Map of Bones, 2005)
 La Bible de Darwin ((en) Black Order, 2006)
 La Malédiction de Marco Polo ((en) The Judas Strain, 2007)
@@ -578,26 +676,215 @@
 L'Île interdite, Fleuve, 2021 ((en) The Demon Crown, 2017), trad. Leslie Boitelle-Tessier, 480 p.  (ISBN 978-2-265-14395-1)
 E.V.E., Fleuve, 2022 ((en) Crucible, 2019), trad. Leslie Boitelle-Tessier, 512 p.  (ISBN 978-2-265-15539-8)
 La Dernière Odyssée, Fleuve, 2023 ((en) The Last Odyssey, 2020), trad. Leslie Boitelle-Tessier, 480 p.  (ISBN 978-2-265-15540-4)
-Crépuscules, Fleuve, 2024 ((en) Kingdom of Bones, 2022), trad. Leslie Boitelle-Tessier, 480 p.  (ISBN 978-2-265-15706-4)
-Série L'Ordre des Sanguinistes
-Cette série est coécrite avec Rebecca Cantrell.
+Crépuscules, Fleuve, 2024 ((en) Kingdom of Bones, 2022), trad. Leslie Boitelle-Tessier, 480 p.  (ISBN 978-2-265-15706-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le nom de James Rollins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série L'Ordre des Sanguinistes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Rebecca Cantrell.
 Le Sang de l'alliance, Fleuve, 2015 ((en) The Blood Gospel, 2013)
 La Dernière Tentation, Fleuve, 2015 ((en) Innocent Blood, 2013)
-Le Faux Prophète, Fleuve, 2016 ((en) Blood Infernal, 2015)
-Série La Chute de la lune
-La Prophétie, Fleuve, 2023 ((en) The Starless Crown, 2022), trad. Leslie Boitelle-Tessier, 640 p.  (ISBN 978-2-265-15511-4)Réédition, Pocket, coll. « Science-fiction » no 7373, 2024  (ISBN 978-2-266-34134-9) (à paraître le 26 septembre 2024)
-(en) The Cradle of Ice, 2023
-Recueils de nouvelles
-(en) Unrestricted Access: New and Classic Short Fiction, 2020
-Sous le nom de James Clemens
-Série Les Bannis et les Proscrits
-Le Feu de la Sor'cière, Bragelonne, 2006 ((en) Wit'ch Fire, 1998)
+Le Faux Prophète, Fleuve, 2016 ((en) Blood Infernal, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous le nom de James Rollins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série La Chute de la lune</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Prophétie, Fleuve, 2023 ((en) The Starless Crown, 2022), trad. Leslie Boitelle-Tessier, 640 p.  (ISBN 978-2-265-15511-4)Réédition, Pocket, coll. « Science-fiction » no 7373, 2024  (ISBN 978-2-266-34134-9) (à paraître le 26 septembre 2024)
+(en) The Cradle of Ice, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous le nom de James Rollins</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Unrestricted Access: New and Classic Short Fiction, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous le nom de James Clemens</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Les Bannis et les Proscrits</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Feu de la Sor'cière, Bragelonne, 2006 ((en) Wit'ch Fire, 1998)
 Les Foudres de la Sor'cière, Bragelonne, 2007 ((en) Wit'ch Storm, 1999)
 La Guerre de la Sor'cière, Bragelonne, 2008 ((en) Wit'ch War, 2000)
 Le Portail de la Sor'cière, Bragelonne, 2008 ((en) Wit'ch Gate, 2001)
-L’Étoile de la Sor’cière, Bragelonne, 2009 ((en) Wit'ch Star, 2002)
-Série Chronique des dieux
-L'Ombre de l'assassin, Bragelonne, 2010 ((en) Shadowfall, 2005)
+L’Étoile de la Sor’cière, Bragelonne, 2009 ((en) Wit'ch Star, 2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jim_Czajkowski</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous le nom de James Clemens</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Chronique des dieux</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'Ombre de l'assassin, Bragelonne, 2010 ((en) Shadowfall, 2005)
 L'Ombre du chevalier, Bragelonne, 2011 ((en) Hinterland, 2006)</t>
         </is>
       </c>
